--- a/salary/Mangrove Salary April-25.xlsx
+++ b/salary/Mangrove Salary April-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ADA798-11FB-4B6D-95E5-15DEE21C397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15FF77E-A20B-4FB5-A8EB-B2A278BE93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>MANGROVE COMMUNICATION</t>
   </si>
   <si>
-    <t>RSO Monthly Incentive Sheet Month of March_2025</t>
-  </si>
-  <si>
     <t>RSO code</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Sub Total (A)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Manager monthly Incentive Sheet month of March'2025</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Grand Total (A+B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager monthly Incentive Sheet month of April'2025</t>
+  </si>
+  <si>
+    <t>RSO Monthly Incentive Sheet Month of April_2025</t>
   </si>
 </sst>
 </file>
@@ -354,12 +354,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,9 +392,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,15 +400,6 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,6 +423,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,15 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,10 +1481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,565 +1499,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="A2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1409935200</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6">
-        <v>1409935200</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="e">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="e">
         <f t="shared" ref="G4:G8" si="0">F4*1/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10">
         <v>900770</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>750770</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K8" si="1">J4*1/I4</f>
         <v>0.8334758040343262</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14">
+      <c r="L4" s="11"/>
+      <c r="M4" s="12">
         <f t="shared" ref="M4:M7" si="2">L4+H4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13">
         <f>L4+H4+O4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1967020280</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
-        <v>1967020280</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="e">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
         <v>921050</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>751572</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>0.81599478855653873</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14">
+      <c r="L5" s="11"/>
+      <c r="M5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13">
         <f t="shared" ref="P5:P7" si="3">L5+H5+O5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1984225578</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6">
-        <v>1984225578</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="e">
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
         <v>1040650</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>725650</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>0.69730456925959738</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1984225580</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6">
-        <v>1984225580</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="e">
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10">
         <v>922939</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>692939</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>0.75079609811699366</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14">
+      <c r="L7" s="11"/>
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="A8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="15">
         <f>SUM(E4:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <f>SUM(F4:F7)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="10" t="e">
+      <c r="G8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <f>SUM(H4:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <f>SUM(I4:I7)</f>
         <v>3785409</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="16">
         <f>SUM(J4:J7)</f>
         <v>2920931</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
         <v>0.77162890456486999</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <f>SUM(L4:L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <f>SUM(M4:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <f>SUM(O4:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="16">
         <f>SUM(P4:P7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="K10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="M10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
         <v>1910805577</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <f>E8</f>
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <f>F8</f>
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="e">
+      <c r="G11" s="17" t="e">
         <f t="shared" ref="G11" si="4">F11*1/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29">
+      <c r="H11" s="22"/>
+      <c r="I11" s="23">
         <f>I8</f>
         <v>3785409</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="23">
         <f>J8</f>
         <v>2920931</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <f t="shared" ref="K11" si="5">J11*1/I11</f>
         <v>0.77162890456486999</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31">
+      <c r="L11" s="24"/>
+      <c r="M11" s="25">
         <f>L11+H11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="25">
         <v>13000</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="15">
+      <c r="O11" s="25"/>
+      <c r="P11" s="13">
         <f>N11+M11+O11</f>
         <v>13000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5">
         <v>1964151517</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="7">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="5">
         <v>10000</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="15">
+      <c r="O12" s="5"/>
+      <c r="P12" s="13">
         <f t="shared" ref="P12:P14" si="6">N12+M12+O12</f>
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="15">
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="7">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="5">
         <v>1000</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="15">
+      <c r="O14" s="5"/>
+      <c r="P14" s="13">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35">
+      <c r="A15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="26">
         <f>SUM(P11:P14)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37">
+      <c r="A16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="27">
         <f>P8+P15</f>
         <v>24000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:P9"/>
     <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="73" priority="73"/>
@@ -2327,5 +2330,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>